--- a/excel-output/HotelSortedName.xlsx
+++ b/excel-output/HotelSortedName.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>After Searched</t>
   </si>
@@ -35,9 +35,9 @@
 Only 1 left at this price
 Special Discount
 13% off
-₹ 6,314
-₹ 5,368
-Total price: ₹ 31,724
+₹ 6,282
+₹ 5,353
+Total price: ₹ 31,634
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -45,15 +45,15 @@
   <si>
     <t>Woodmere Serviced Apartment
 8.6/10
-Very good69 reviews
+Very good70 reviews
 Near Yaya CentreShow on Map
 Standard Two-Bedroom Apartment
 x4
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,337
-Total price: ₹ 31,458
+₹ 5,312
+Total price: ₹ 31,307
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -68,14 +68,14 @@
 Family Room
 x4
 Free Cancellation
-₹ 22,199
-Total price: ₹ 142,070
+₹ 21,063
+Total price: ₹ 134,802
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Javilla Eagles Safari Guest house
-7.8/10
+7.7/10
 Good34 reviews
 8.4 km from centreShow on Map
 Comfort Apartment, 2 Bedrooms, Non Smoking, Ground Floor
@@ -84,28 +84,28 @@
 2 bedrooms
 2 beds
 Only 1 left at this price
-₹ 5,153
-Total price: ₹ 29,885
+₹ 5,128
+Total price: ₹ 29,742
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Kenya Comfort Suites
 7.9/10
-Good12 reviews
+Good11 reviews
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-Last booked 17 hrs ago
-₹ 4,875
-Total price: ₹ 29,941
+Last booked 6 hrs ago
+₹ 4,851
+Total price: ₹ 29,797
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
-9.7/10
-Amazing43 reviews
+9.8/10
+Outstanding46 reviews
 "Great stay!"
 "Great service"
 Near National Museum of KenyaShow on Map
@@ -114,9 +114,9 @@
 x4
 Free Cancellation
 Breakfast included
-Last booked 16 hrs ago
-₹ 207,492
-Total price: ₹ 1,309,898
+Last booked 19 hrs ago
+₹ 206,210
+Total price: ₹ 1,301,801
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -130,8 +130,11 @@
 Entire apartment 18㎡
 2 bedrooms
 3 beds
-₹ 3,821
-Total price: ₹ 22,543
+Special Discount
+₹ 113 off
+₹ 4,502
+₹ 4,389
+Total price: ₹ 25,906
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -140,7 +143,7 @@
 9.4/10
 Amazing49 reviews
 "Clean and tidy"
-"Great rooms"
+"Great stay!"
 Near Yaya CentreShow on Map
 No. 19 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Luxury Apartment
@@ -149,28 +152,31 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 988.59 in Trip Coins
+Earn ₹ 961.83 in Trip Coins
 Limited Time Offer
-14% off
-₹ 19,974
-₹ 16,746
-Total price: ₹ 98,802
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Fedha Residences by Trianum
-9.1/10
-Great52 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Executive Two Bedrooms Apartment
-x4
+16% off
+₹ 19,945
+₹ 16,299
+Total price: ₹ 96,167
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Arcadia Hotel
+Renovated in 2025
+8.8/10
+Very good14 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Suite
+x4
+Entire unit 110㎡
+2 bedrooms
+2 beds
+Free Cancellation
 Only 5 left at this price
-₹ 9,164
-Total price: ₹ 54,070
+₹ 7,810
+Total price: ₹ 45,300
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -188,92 +194,36 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-₹ 25,159
-Total price: ₹ 157,243
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Free Cancellation
-₹ 7,075
-Total price: ₹ 41,706
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Arcadia Hotel
-Renovated in 2025
-8.8/10
-Very good12 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Suite
-x4
-Entire unit 110㎡
-2 bedrooms
-2 beds
-Free Cancellation
+₹ 22,831
+Total price: ₹ 142,696
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lux Suites Riara One Residency Angama
+Opened in 2025
+9.9/10
+Outstanding17 reviews
+"Clean and tidy"
+"Great location"
+Near Yaya CentreShow on Map
+Family Room
+x4
+Entire apartment 98㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Breakfast included
+Earn ₹ 1,339.80 in Trip Coins
 Only 5 left at this price
-₹ 7,848
-Total price: ₹ 45,518
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Executive Residency by Best Western Nairobi
-9.2/10
-Great51 reviews
-Near The Sarit Expo CentreShow on Map
-Two Bedroom Apartment
-x4
-Breakfast included
-₹ 18,743
-Total price: ₹ 115,272
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Mövenpick Hotel &amp; Residences Nairobi
-Ad
-9.0/10
-Great96 reviews
-"Great service"
-"Great location"
-Near The Sarit Expo CentreShow on Map
-No. 1 of Gourmet Hotels in Nairobi
-Two-Bedroom Residence
-x4
-Free Cancellation
-₹ 18,267
-Total price: ₹ 114,169
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
-Ad
-9.7/10
-Amazing93 reviews
-"Great service"
-"Great location"
-Near Village MarketShow on Map
-No. 13 of 4-Star Select Hotels in Nairobi
-Family Room
-x4
-Free Cancellation
-₹ 22,199
-Total price: ₹ 142,070
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Special Discount
+8% off
+₹ 16,610
+₹ 15,139
+Total price: ₹ 89,316
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Palacina the Residence &amp; the Suites
@@ -288,49 +238,67 @@
 3 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 2,553.79 in Trip Coins
-Only 2 left at this price
+Earn ₹ 2,541.41 in Trip Coins
+Only 1 left at this price
 Special Discount
 20% off
-₹ 37,360
-₹ 28,849
-Total price: ₹ 170,209
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Highlands Suites Hotel Apartments
-8.3/10
-Very good27 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Apartment
-x4
-Entire unit
-2 bedrooms
-2 beds
-Free Cancellation
-Only 1 left at this price
-₹ 11,098
-Total price: ₹ 65,478
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Fairview Hotel Nairobi, Vignette Collection by IHG
-Renovated in 2025
-9.0/10
-Great98 reviews
+₹ 37,181
+₹ 28,711
+Total price: ₹ 169,394
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Mercure Nairobi Upper Hill
+Ad
+8.9/10
+Very good60 reviews
 Near Giraffe manorShow on Map
-No. 17 of 4-Star Select Hotels in Nairobi
-Fairview Suite
-x4
-Free Cancellation
-₹ 57,950
-Total price: ₹ 370,880
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+2
+Classic Superior King Room
+Free Cancellation
+₹ 11,567
+Total price: ₹ 144,594
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Executive Residency by Best Western Nairobi
+9.2/10
+Great46 reviews
+Near The Sarit Expo CentreShow on Map
+Two Bedroom Apartment
+x4
+Breakfast included
+₹ 17,285
+Total price: ₹ 106,304
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Kester International Apartment Hotel
+Opened in 2025
+9.8/10
+Outstanding27 reviews
+"Great service"
+"Great rooms"
+Near Yaya CentreShow on Map
+Boutique 2-bedroom And 1-living Room Suite
+x4
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+Earn ₹ 527.13 in Trip Coins
+Only 3 left at this price
+Special Discount
+15% off
+₹ 7,291
+₹ 6,052
+Total price: ₹ 35,102
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>The King Post
@@ -342,8 +310,8 @@
 Entire unit 97㎡
 2 bedrooms
 2 beds
-₹ 6,386
-Total price: ₹ 37,610
+₹ 6,356
+Total price: ₹ 37,430
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -358,48 +326,32 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 18,267
-Total price: ₹ 114,169
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Lavington Residences By Trianum
-Opened in 2025
-9.4/10
-Amazing4 reviews
-Near Yaya CentreShow on Map
-Executive Two-Bedroom Apartment
-x4
-Only 1 left at this price
-₹ 10,364
-Total price: ₹ 61,150
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Windsor Golf Hotel &amp; Country Club
-New to Trip.com
-8.8/10
-Very good64 reviews
-9.7 km from centreShow on Map
-No. 6 of 4-Star Select Hotels in Nairobi
-Two- Bedroom Cottage
-x4
-Entire unit 65㎡
-1 bedroom
-4 beds
-Breakfast included
-₹ 37,584
-Total price: ₹ 221,747
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Last booked 1 hr ago
+₹ 18,692
+Total price: ₹ 116,824
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Fedha Residences by Trianum
+9.0/10
+Great47 reviews
+"Great service"
+"Great location"
+Near Yaya CentreShow on Map
+Executive Two Bedrooms Apartment
+x4
+Only 3 left at this price
+₹ 9,152
+Total price: ₹ 53,994
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Skynest Residences by CityBlue, Nairobi - Official
 8.5/10
-Very good65 reviews
+Very good67 reviews
 Near The Sarit Expo CentreShow on Map
 Deluxe Two-Bedroom Suite
 x4
@@ -409,9 +361,9 @@
 Free Cancellation
 Member deal
 13% off
-₹ 16,191
-₹ 13,855
-Total price: ₹ 81,748
+₹ 16,495
+₹ 14,115
+Total price: ₹ 83,279
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -424,9 +376,94 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-₹ 29,807
-Total price: ₹ 190,807
-1 room × 5 nights incl. taxes &amp; fees
+Last booked 21 hrs ago
+₹ 29,950
+Total price: ₹ 191,722
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Maskan Suites
+8.9/10
+Very good34 reviews
+Near Yaya CentreShow on Map
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+x4
+Entire apartment
+2 bedrooms
+2 beds
+Free Cancellation
+Last booked 10 hrs ago
+₹ 7,041
+Total price: ₹ 41,507
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lavington Residences By Trianum
+Opened in 2025
+9.6/10
+Amazing5 reviews
+Near Yaya CentreShow on Map
+Executive Two-Bedroom Apartment
+x4
+Only 1 left at this price
+₹ 9,694
+Total price: ₹ 57,197
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Somerset Westview Nairobi
+8.9/10
+Very good55 reviews
+"Clean and tidy"
+"Great rooms"
+Near Yaya CentreShow on Map
+No. 20 of 4-Star Select Hotels in Nairobi
+Two-Bedroom Suite
+x4
+Earn ₹ 1,100.94 in Trip Coins
+Special Discount
+20% off
+₹ 23,201
+₹ 17,534
+Total price: ₹ 110,026
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Fairmont the Norfolk
+8.9/10
+Very good54 reviews
+Near National Museum of KenyaShow on Map
+No. 1 of Cultural Hotels in Nairobi
+Fairmont Family Room
+x4
+Free Cancellation
+₹ 42,183
+Total price: ₹ 269,969
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Pullman Nairobi Upper Hill
+Renovated in 2025
+Ad
+9.4/10
+Amazing59 reviews
+Near Giraffe manorShow on Map
+No. 3 of 4-Star Select Hotels in Nairobi
+2
+Deluxe Room With Two Double Beds
+Free Cancellation
+Earn ₹ 1,738.81 in Trip Coins
+Last booked 6 hrs ago
+₹ 13,910
+Total price: ₹ 173,879
+2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
 </sst>
@@ -524,10 +561,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>12</v>
@@ -535,40 +572,40 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>21</v>
@@ -579,21 +616,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>26</v>
@@ -601,15 +638,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
